--- a/source_data/Goshawk_data_nestlings.xlsx
+++ b/source_data/Goshawk_data_nestlings.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Merling\Desktop\Manuskipte\urban ecology\statistics\Tabellen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Merling\Desktop\Manuskipte\urban ecology\Draft\submission3_Open Science\submission\accipiteR-master\source_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -2666,10 +2666,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W670"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A678" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A318" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AD1" sqref="AD1"/>
-      <selection pane="bottomLeft" activeCell="A546" sqref="A546:XFD712"/>
+      <selection pane="bottomLeft" activeCell="V318" sqref="V318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16777,7 +16777,7 @@
         <v>31</v>
       </c>
       <c r="Q194" s="1">
-        <f t="shared" ref="Q194:Q257" si="9">E194-P194</f>
+        <f t="shared" ref="Q194:Q205" si="9">E194-P194</f>
         <v>42129</v>
       </c>
       <c r="R194" s="1">
@@ -25533,7 +25533,7 @@
         <v>0</v>
       </c>
       <c r="V318">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W318">
         <v>69.945106669111794</v>
@@ -31389,7 +31389,7 @@
         <v>0</v>
       </c>
       <c r="V398">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W398">
         <v>60.586677531065398</v>
@@ -33321,7 +33321,7 @@
         <v>0</v>
       </c>
       <c r="V425" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W425" s="34">
         <v>65.015915389631601</v>
@@ -33611,74 +33611,74 @@
         <v>65.015915389631601</v>
       </c>
     </row>
-    <row r="430" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A430" t="s">
+    <row r="430" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A430" s="34" t="s">
         <v>425</v>
       </c>
-      <c r="B430" t="s">
+      <c r="B430" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C430" t="s">
+      <c r="C430" s="34" t="s">
         <v>678</v>
       </c>
-      <c r="D430">
+      <c r="D430" s="34">
         <v>2016</v>
       </c>
-      <c r="E430" s="1">
+      <c r="E430" s="35">
         <v>42521</v>
       </c>
-      <c r="F430" s="2">
+      <c r="F430" s="36">
         <v>0.45833333333333331</v>
       </c>
-      <c r="G430" s="33">
-        <v>0</v>
-      </c>
-      <c r="H430" s="33">
+      <c r="G430" s="37">
+        <v>0</v>
+      </c>
+      <c r="H430" s="37">
         <v>14</v>
       </c>
-      <c r="I430" t="s">
+      <c r="I430" s="34" t="s">
         <v>585</v>
       </c>
-      <c r="J430">
+      <c r="J430" s="34">
         <v>3</v>
       </c>
-      <c r="K430" t="s">
+      <c r="K430" s="34" t="s">
         <v>588</v>
       </c>
-      <c r="M430" t="s">
+      <c r="M430" s="34" t="s">
         <v>646</v>
       </c>
-      <c r="N430">
+      <c r="N430" s="34">
         <v>610</v>
       </c>
-      <c r="O430">
+      <c r="O430" s="34">
         <v>221</v>
       </c>
-      <c r="P430" s="11">
+      <c r="P430" s="38">
         <v>32</v>
       </c>
-      <c r="Q430" s="1">
+      <c r="Q430" s="35">
         <f t="shared" si="21"/>
         <v>42489</v>
       </c>
-      <c r="R430" s="1">
+      <c r="R430" s="35">
         <f t="shared" si="19"/>
         <v>42451</v>
       </c>
-      <c r="S430" s="13">
+      <c r="S430" s="39">
         <v>85</v>
       </c>
-      <c r="T430" s="13">
+      <c r="T430" s="39">
         <f t="shared" si="20"/>
         <v>83</v>
       </c>
-      <c r="U430">
-        <v>0</v>
-      </c>
-      <c r="V430">
-        <v>0</v>
-      </c>
-      <c r="W430">
+      <c r="U430" s="34">
+        <v>0</v>
+      </c>
+      <c r="V430" s="34">
+        <v>1</v>
+      </c>
+      <c r="W430" s="34">
         <v>65.015915389631601</v>
       </c>
     </row>
@@ -40598,7 +40598,7 @@
         <v>23</v>
       </c>
       <c r="Q528" s="1">
-        <f t="shared" ref="Q528:Q591" si="27">E528-P528</f>
+        <f t="shared" ref="Q528:Q545" si="27">E528-P528</f>
         <v>42507</v>
       </c>
       <c r="R528" s="1">
